--- a/Paper_resultados/Parametric_model/LoS/Output/Model_selection/CCI/summary_CCI.xlsx
+++ b/Paper_resultados/Parametric_model/LoS/Output/Model_selection/CCI/summary_CCI.xlsx
@@ -391,7 +391,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>26.05550966731641</v>
+        <v>29.02936602280829</v>
       </c>
       <c r="E2">
         <v>26.75</v>
@@ -404,7 +404,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>33.20211976153344</v>
+        <v>40.63093726082683</v>
       </c>
       <c r="E3">
         <v>38</v>
@@ -417,7 +417,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>49.7519529577276</v>
+        <v>55.48614820003407</v>
       </c>
       <c r="E4">
         <v>53</v>

--- a/Paper_resultados/Parametric_model/LoS/Output/Model_selection/CCI/summary_CCI.xlsx
+++ b/Paper_resultados/Parametric_model/LoS/Output/Model_selection/CCI/summary_CCI.xlsx
@@ -417,7 +417,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>55.48614820003407</v>
+        <v>55.48614820003402</v>
       </c>
       <c r="E4">
         <v>53</v>
